--- a/OperadoraNominas/bin/Debug/Archivos/maecco1.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/maecco1.xlsx
@@ -5,16 +5,16 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\Xurtep\XurtepNominas\XurtepNominas\bin\Debug\Archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\Operadora\OperadoraNominas\OperadoraNominas\bin\Debug\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
-    <sheet name="Deducciones" sheetId="4" r:id="rId2"/>
-    <sheet name="Percepciones" sheetId="3" r:id="rId3"/>
+    <sheet name="Percepciones" sheetId="3" r:id="rId2"/>
+    <sheet name="Deducciones" sheetId="4" r:id="rId3"/>
     <sheet name="Otros Pagos" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -861,28 +861,28 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1373,135 +1373,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:L3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" customWidth="1"/>
-    <col min="3" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="22" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="L2"/>
-    <mergeCell ref="C2"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2"/>
-    <mergeCell ref="J2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:W3"/>
@@ -1562,40 +1433,40 @@
       <c r="C2" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="28" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="29"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="28" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="29"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="29"/>
+      <c r="N2" s="34"/>
       <c r="O2" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="28" t="s">
+      <c r="P2" s="32"/>
+      <c r="Q2" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="29"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="34"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1683,12 +1554,141 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja3"/>
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" customWidth="1"/>
+    <col min="3" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="22" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C2" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="L2"/>
+    <mergeCell ref="C2"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2"/>
+    <mergeCell ref="J2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
